--- a/analysis/DSSAT_no_inflow_satflow/dssat-hgs.xlsx
+++ b/analysis/DSSAT_no_inflow_satflow/dssat-hgs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glogow0000\HGS-DSSAT\analysis\DSSAT_no_inflow_satflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F3EB9-0F10-4EA2-BAC2-3BCEDA4ABDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928FAAC6-F023-4E86-8F01-40E959D61DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40284" yWindow="1884" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{0C8D3E46-15E1-4A76-B374-E6A02BDDAFEF}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{0C8D3E46-15E1-4A76-B374-E6A02BDDAFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sat layer DSSAT wheat" sheetId="1" r:id="rId1"/>
     <sheet name="DRN layer DSSAT wheat" sheetId="2" r:id="rId2"/>
+    <sheet name=" ET layer DSSAT wheat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>SW1D</t>
   </si>
@@ -121,6 +122,36 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>ES1D</t>
+  </si>
+  <si>
+    <t>ES2D</t>
+  </si>
+  <si>
+    <t>ES3D</t>
+  </si>
+  <si>
+    <t>ES4D</t>
+  </si>
+  <si>
+    <t>ES5D</t>
+  </si>
+  <si>
+    <t>ES6D</t>
+  </si>
+  <si>
+    <t>ES7D</t>
+  </si>
+  <si>
+    <t>ES8D</t>
+  </si>
+  <si>
+    <t>ES9D</t>
   </si>
 </sst>
 </file>
@@ -506,9 +537,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -537,7 +568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -569,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -601,7 +632,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -633,7 +664,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -665,7 +696,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -697,7 +728,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -729,7 +760,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -761,7 +792,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -793,7 +824,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -825,7 +856,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -857,7 +888,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -889,7 +920,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -921,7 +952,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -953,7 +984,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -985,7 +1016,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1017,7 +1048,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1049,7 +1080,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1081,7 +1112,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1113,7 +1144,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1145,7 +1176,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1177,7 +1208,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1209,7 +1240,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1241,7 +1272,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1273,7 +1304,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1305,7 +1336,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1337,7 +1368,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1369,7 +1400,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1401,7 +1432,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1433,7 +1464,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1465,7 +1496,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1497,7 +1528,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1529,7 +1560,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1561,7 +1592,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1593,7 +1624,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1625,7 +1656,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1657,7 +1688,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1689,7 +1720,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1721,7 +1752,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1753,7 +1784,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1785,7 +1816,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1817,7 +1848,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1849,7 +1880,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1881,7 +1912,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1913,7 +1944,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1945,7 +1976,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1977,7 +2008,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2009,7 +2040,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2041,7 +2072,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2073,7 +2104,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2105,7 +2136,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2137,7 +2168,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2169,7 +2200,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2201,7 +2232,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2233,7 +2264,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2265,7 +2296,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2297,7 +2328,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2329,7 +2360,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2361,7 +2392,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2393,7 +2424,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2425,7 +2456,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2457,7 +2488,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2489,7 +2520,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2521,7 +2552,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2553,7 +2584,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2585,7 +2616,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2617,7 +2648,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2649,7 +2680,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2681,7 +2712,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2713,7 +2744,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2745,7 +2776,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2777,7 +2808,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2809,7 +2840,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2841,7 +2872,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2873,7 +2904,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2905,7 +2936,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2937,7 +2968,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2969,7 +3000,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3001,7 +3032,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3033,7 +3064,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3065,7 +3096,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3097,7 +3128,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3129,7 +3160,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3161,7 +3192,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3193,7 +3224,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3225,7 +3256,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3257,7 +3288,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3289,7 +3320,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3321,7 +3352,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3353,7 +3384,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3385,7 +3416,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3417,7 +3448,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3449,7 +3480,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3481,7 +3512,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3513,7 +3544,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3545,7 +3576,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3577,7 +3608,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3609,7 +3640,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3641,7 +3672,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3673,7 +3704,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3705,7 +3736,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3737,7 +3768,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3769,7 +3800,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3801,7 +3832,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3833,7 +3864,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3874,13 +3905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D128CB7A-42AE-402E-88F2-FCF956BAD2CE}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3910,7 +3941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3942,7 +3973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3974,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4006,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4038,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4070,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4102,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4134,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4166,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4198,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4230,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4262,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4294,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4326,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4358,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4390,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4422,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4454,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4486,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4518,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4550,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4582,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4614,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4646,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4678,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4710,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4742,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4774,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4806,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4838,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4870,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4902,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4934,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4966,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4998,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5030,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5062,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5094,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5126,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5158,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5190,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5222,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5254,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5286,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5318,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5350,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5382,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5414,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5446,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5478,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5510,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5542,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5574,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5606,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5638,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5670,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5702,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5734,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5766,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5798,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5830,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5862,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5894,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5926,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5958,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5990,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6022,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6054,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6086,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6118,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6150,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6182,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6214,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6246,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6278,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6310,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6342,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6374,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6406,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6438,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6470,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6502,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6534,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6566,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6598,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6630,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6662,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6694,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6726,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6758,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6790,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6822,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6854,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6886,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6918,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6950,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6982,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7014,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7046,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7078,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7110,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7142,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7174,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7206,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7240,6 +7271,3363 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BD4D93-59F2-4B6D-813F-626BD65560DF}">
+  <dimension ref="B1:L104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3.496</v>
+      </c>
+      <c r="C2">
+        <v>0.78</v>
+      </c>
+      <c r="D2">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.248</v>
+      </c>
+      <c r="H2">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.76</v>
+      </c>
+      <c r="D3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.224</v>
+      </c>
+      <c r="H3">
+        <v>0.188</v>
+      </c>
+      <c r="I3">
+        <v>0.19</v>
+      </c>
+      <c r="J3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.96</v>
+      </c>
+      <c r="D4">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.62</v>
+      </c>
+      <c r="F4">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.249</v>
+      </c>
+      <c r="I4">
+        <v>0.251</v>
+      </c>
+      <c r="J4">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.875</v>
+      </c>
+      <c r="D5">
+        <v>0.11</v>
+      </c>
+      <c r="E5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.11</v>
+      </c>
+      <c r="E6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.109</v>
+      </c>
+      <c r="E7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.108</v>
+      </c>
+      <c r="E8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.108</v>
+      </c>
+      <c r="E9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.72</v>
+      </c>
+      <c r="C10">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.107</v>
+      </c>
+      <c r="E10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.499</v>
+      </c>
+      <c r="D11">
+        <v>0.107</v>
+      </c>
+      <c r="E11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K11">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.625</v>
+      </c>
+      <c r="C12">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.106</v>
+      </c>
+      <c r="E12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.105</v>
+      </c>
+      <c r="E13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.105</v>
+      </c>
+      <c r="E14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K14">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C15">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.105</v>
+      </c>
+      <c r="E15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.048</v>
+      </c>
+      <c r="C16">
+        <v>0.879</v>
+      </c>
+      <c r="D16">
+        <v>0.105</v>
+      </c>
+      <c r="E16">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.105</v>
+      </c>
+      <c r="E17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>0.85</v>
+      </c>
+      <c r="D18">
+        <v>0.106</v>
+      </c>
+      <c r="E18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.105</v>
+      </c>
+      <c r="E19">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K19">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.104</v>
+      </c>
+      <c r="E20">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K20">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.104</v>
+      </c>
+      <c r="E21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K21">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E23">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K23">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1.107</v>
+      </c>
+      <c r="C24">
+        <v>0.872</v>
+      </c>
+      <c r="D24">
+        <v>0.108</v>
+      </c>
+      <c r="E24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2.996</v>
+      </c>
+      <c r="C25">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F25">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4.5259999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E26">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26">
+        <v>0.25</v>
+      </c>
+      <c r="I26">
+        <v>0.252</v>
+      </c>
+      <c r="J26">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4.4850000000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E27">
+        <v>0.6</v>
+      </c>
+      <c r="F27">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H27">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.245</v>
+      </c>
+      <c r="J27">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K27">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D28">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.433</v>
+      </c>
+      <c r="F28">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.21</v>
+      </c>
+      <c r="H28">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J28">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.109</v>
+      </c>
+      <c r="E29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K29">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1.242</v>
+      </c>
+      <c r="C30">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.108</v>
+      </c>
+      <c r="E30">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K30">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1.21</v>
+      </c>
+      <c r="C31">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D31">
+        <v>0.106</v>
+      </c>
+      <c r="E31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K31">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.105</v>
+      </c>
+      <c r="E32">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H32">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I32">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J32">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K32">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.999</v>
+      </c>
+      <c r="C33">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D33">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E33">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F33">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K33">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D34">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E34">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K34">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1.25</v>
+      </c>
+      <c r="C35">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E35">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K35">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1.431</v>
+      </c>
+      <c r="C36">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D36">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E36">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F36">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K36">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="C37">
+        <v>0.76</v>
+      </c>
+      <c r="D37">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F37">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K37">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1.361</v>
+      </c>
+      <c r="C38">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D38">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E38">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F38">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K38">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>3.9540000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E39">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.309</v>
+      </c>
+      <c r="G39">
+        <v>0.245</v>
+      </c>
+      <c r="H39">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J39">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="K39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2.9239999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D40">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F40">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J40">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K40">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="C41">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D41">
+        <v>0.442</v>
+      </c>
+      <c r="E41">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F41">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.153</v>
+      </c>
+      <c r="H41">
+        <v>0.128</v>
+      </c>
+      <c r="I41">
+        <v>0.13</v>
+      </c>
+      <c r="J41">
+        <v>0.222</v>
+      </c>
+      <c r="K41">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="C42">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="E42">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F42">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G42">
+        <v>0.254</v>
+      </c>
+      <c r="H42">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I42">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J42">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="K42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.751</v>
+      </c>
+      <c r="D43">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E43">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.311</v>
+      </c>
+      <c r="G43">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H43">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="I43">
+        <v>0.193</v>
+      </c>
+      <c r="J43">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="C44">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.112</v>
+      </c>
+      <c r="E44">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F44">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G44">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H44">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I44">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J44">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K44">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D45">
+        <v>0.11</v>
+      </c>
+      <c r="E45">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F45">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G45">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H45">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I45">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J45">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K45">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="C46">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D46">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E46">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H46">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I46">
+        <v>0.186</v>
+      </c>
+      <c r="J46">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2.609</v>
+      </c>
+      <c r="C47">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D47">
+        <v>0.315</v>
+      </c>
+      <c r="E47">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F47">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.126</v>
+      </c>
+      <c r="H47">
+        <v>0.106</v>
+      </c>
+      <c r="I47">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J47">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>4.468</v>
+      </c>
+      <c r="C48">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D48">
+        <v>0.53</v>
+      </c>
+      <c r="E48">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F48">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G48">
+        <v>0.222</v>
+      </c>
+      <c r="H48">
+        <v>0.187</v>
+      </c>
+      <c r="I48">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J48">
+        <v>0.3</v>
+      </c>
+      <c r="K48">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="C49">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="D49">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E49">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.307</v>
+      </c>
+      <c r="G49">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H49">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.187</v>
+      </c>
+      <c r="J49">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="K49">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="C50">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D50">
+        <v>0.108</v>
+      </c>
+      <c r="E50">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G50">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K50">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D51">
+        <v>0.105</v>
+      </c>
+      <c r="E51">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F51">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G51">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K51">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2.754</v>
+      </c>
+      <c r="C52">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D52">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E52">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F52">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G52">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H52">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I52">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J52">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K52">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D53">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E53">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F53">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G53">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K53">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="C54">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D54">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E54">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.01</v>
+      </c>
+      <c r="G54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H54">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I54">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J54">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K54">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>3.5310000000000001</v>
+      </c>
+      <c r="C55">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D55">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E55">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.01</v>
+      </c>
+      <c r="G55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H55">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I55">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J55">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K55">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>3.7450000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D56">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.03</v>
+      </c>
+      <c r="F56">
+        <v>0.01</v>
+      </c>
+      <c r="G56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K56">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4.492</v>
+      </c>
+      <c r="C57">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D57">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E57">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.01</v>
+      </c>
+      <c r="G57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H57">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I57">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J57">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K57">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3.5230000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.67</v>
+      </c>
+      <c r="D58">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E58">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H58">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I58">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J58">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K58">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>3.903</v>
+      </c>
+      <c r="C59">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D59">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E59">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F59">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H59">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I59">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J59">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K59">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>4.093</v>
+      </c>
+      <c r="C60">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D60">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E60">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F60">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K60">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4.351</v>
+      </c>
+      <c r="C61">
+        <v>0.432</v>
+      </c>
+      <c r="D61">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E61">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J61">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K61">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="C62">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D62">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E62">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G62">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H62">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I62">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J62">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K62">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D63">
+        <v>0.06</v>
+      </c>
+      <c r="E63">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F63">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K63">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="C64">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D64">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.02</v>
+      </c>
+      <c r="F64">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G64">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K64">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>4.83</v>
+      </c>
+      <c r="C65">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D65">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.02</v>
+      </c>
+      <c r="F65">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G65">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H65">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I65">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J65">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K65">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>4.8970000000000002</v>
+      </c>
+      <c r="C66">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D66">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E66">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F66">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G66">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H66">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I66">
+        <v>2E-3</v>
+      </c>
+      <c r="J66">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K66">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3.7549999999999999</v>
+      </c>
+      <c r="C67">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D67">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E67">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F67">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G67">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H67">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I67">
+        <v>2E-3</v>
+      </c>
+      <c r="J67">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K67">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>4.548</v>
+      </c>
+      <c r="C68">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D68">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E68">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G68">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H68">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I68">
+        <v>2E-3</v>
+      </c>
+      <c r="J68">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K68">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>3.835</v>
+      </c>
+      <c r="C69">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D69">
+        <v>0.05</v>
+      </c>
+      <c r="E69">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F69">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H69">
+        <v>2E-3</v>
+      </c>
+      <c r="I69">
+        <v>2E-3</v>
+      </c>
+      <c r="J69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K69">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D70">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E70">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F70">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H70">
+        <v>2E-3</v>
+      </c>
+      <c r="I70">
+        <v>2E-3</v>
+      </c>
+      <c r="J70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K70">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="C71">
+        <v>0.318</v>
+      </c>
+      <c r="D71">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E71">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F71">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H71">
+        <v>2E-3</v>
+      </c>
+      <c r="I71">
+        <v>2E-3</v>
+      </c>
+      <c r="J71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K71">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>2.3570000000000002</v>
+      </c>
+      <c r="C72">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D72">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E72">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H72">
+        <v>2E-3</v>
+      </c>
+      <c r="I72">
+        <v>2E-3</v>
+      </c>
+      <c r="J72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K72">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D73">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E73">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H73">
+        <v>2E-3</v>
+      </c>
+      <c r="I73">
+        <v>2E-3</v>
+      </c>
+      <c r="J73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K73">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2.097</v>
+      </c>
+      <c r="C74">
+        <v>0.24</v>
+      </c>
+      <c r="D74">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E74">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F74">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H74">
+        <v>2E-3</v>
+      </c>
+      <c r="I74">
+        <v>2E-3</v>
+      </c>
+      <c r="J74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K74">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="C75">
+        <v>0.219</v>
+      </c>
+      <c r="D75">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H75">
+        <v>2E-3</v>
+      </c>
+      <c r="I75">
+        <v>2E-3</v>
+      </c>
+      <c r="J75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K75">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1.96</v>
+      </c>
+      <c r="C76">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D76">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E76">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F76">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H76">
+        <v>2E-3</v>
+      </c>
+      <c r="I76">
+        <v>2E-3</v>
+      </c>
+      <c r="J76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K76">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="C77">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D77">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E77">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F77">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G77">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H77">
+        <v>2E-3</v>
+      </c>
+      <c r="I77">
+        <v>2E-3</v>
+      </c>
+      <c r="J77">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K77">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1.853</v>
+      </c>
+      <c r="C78">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D78">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E78">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F78">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H78">
+        <v>2E-3</v>
+      </c>
+      <c r="I78">
+        <v>2E-3</v>
+      </c>
+      <c r="J78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K78">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="C79">
+        <v>0.15</v>
+      </c>
+      <c r="D79">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E79">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F79">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H79">
+        <v>2E-3</v>
+      </c>
+      <c r="I79">
+        <v>2E-3</v>
+      </c>
+      <c r="J79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K79">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1.97</v>
+      </c>
+      <c r="C80">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D80">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E80">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F80">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H80">
+        <v>2E-3</v>
+      </c>
+      <c r="I80">
+        <v>2E-3</v>
+      </c>
+      <c r="J80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K80">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="C81">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D81">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E81">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F81">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G81">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H81">
+        <v>2E-3</v>
+      </c>
+      <c r="I81">
+        <v>2E-3</v>
+      </c>
+      <c r="J81">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K81">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="C82">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D82">
+        <v>0.187</v>
+      </c>
+      <c r="E82">
+        <v>0.107</v>
+      </c>
+      <c r="F82">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G82">
+        <v>0.06</v>
+      </c>
+      <c r="H82">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I82">
+        <v>0.06</v>
+      </c>
+      <c r="J82">
+        <v>0.156</v>
+      </c>
+      <c r="K82">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2.496</v>
+      </c>
+      <c r="C83">
+        <v>0.52</v>
+      </c>
+      <c r="D83">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E83">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F83">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G83">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H83">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I83">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K83">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>4.4050000000000002</v>
+      </c>
+      <c r="C84">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D84">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E84">
+        <v>0.23</v>
+      </c>
+      <c r="F84">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G84">
+        <v>0.121</v>
+      </c>
+      <c r="H84">
+        <v>0.109</v>
+      </c>
+      <c r="I84">
+        <v>0.12</v>
+      </c>
+      <c r="J84">
+        <v>0.315</v>
+      </c>
+      <c r="K84">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="C85">
+        <v>0.59</v>
+      </c>
+      <c r="D85">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E85">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G85">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H85">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I85">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J85">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="K85">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="C86">
+        <v>0.83</v>
+      </c>
+      <c r="D86">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E86">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F86">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G86">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H86">
+        <v>2E-3</v>
+      </c>
+      <c r="I86">
+        <v>2E-3</v>
+      </c>
+      <c r="J86">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K86">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2.464</v>
+      </c>
+      <c r="C87">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D87">
+        <v>0.1</v>
+      </c>
+      <c r="E87">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F87">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G87">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H87">
+        <v>2E-3</v>
+      </c>
+      <c r="I87">
+        <v>2E-3</v>
+      </c>
+      <c r="J87">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K87">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="C88">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D88">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E88">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F88">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G88">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H88">
+        <v>2E-3</v>
+      </c>
+      <c r="I88">
+        <v>2E-3</v>
+      </c>
+      <c r="J88">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K88">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="C89">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D89">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E89">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F89">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G89">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H89">
+        <v>2E-3</v>
+      </c>
+      <c r="I89">
+        <v>2E-3</v>
+      </c>
+      <c r="J89">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K89">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>4.109</v>
+      </c>
+      <c r="C90">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="D90">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E90">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F90">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G90">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H90">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I90">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J90">
+        <v>0.39</v>
+      </c>
+      <c r="K90">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1.694</v>
+      </c>
+      <c r="C91">
+        <v>0.875</v>
+      </c>
+      <c r="D91">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E91">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F91">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G91">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H91">
+        <v>2E-3</v>
+      </c>
+      <c r="I91">
+        <v>2E-3</v>
+      </c>
+      <c r="J91">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K91">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>1.411</v>
+      </c>
+      <c r="C92">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D92">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E92">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F92">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G92">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H92">
+        <v>2E-3</v>
+      </c>
+      <c r="I92">
+        <v>2E-3</v>
+      </c>
+      <c r="J92">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K92">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="C93">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D93">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E93">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F93">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G93">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H93">
+        <v>2E-3</v>
+      </c>
+      <c r="I93">
+        <v>2E-3</v>
+      </c>
+      <c r="J93">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K93">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="C94">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D94">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E94">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F94">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G94">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H94">
+        <v>2E-3</v>
+      </c>
+      <c r="I94">
+        <v>2E-3</v>
+      </c>
+      <c r="J94">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K94">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C95">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D95">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E95">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F95">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G95">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H95">
+        <v>2E-3</v>
+      </c>
+      <c r="I95">
+        <v>2E-3</v>
+      </c>
+      <c r="J95">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K95">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C96">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D96">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E96">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F96">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G96">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H96">
+        <v>2E-3</v>
+      </c>
+      <c r="I96">
+        <v>2E-3</v>
+      </c>
+      <c r="J96">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K96">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0.71</v>
+      </c>
+      <c r="C97">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D97">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E97">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F97">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H97">
+        <v>2E-3</v>
+      </c>
+      <c r="I97">
+        <v>2E-3</v>
+      </c>
+      <c r="J97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K97">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C98">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D98">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F98">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G98">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H98">
+        <v>2E-3</v>
+      </c>
+      <c r="I98">
+        <v>2E-3</v>
+      </c>
+      <c r="J98">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K98">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="C99">
+        <v>0.71</v>
+      </c>
+      <c r="D99">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E99">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F99">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G99">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H99">
+        <v>2E-3</v>
+      </c>
+      <c r="I99">
+        <v>2E-3</v>
+      </c>
+      <c r="J99">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K99">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C100">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D100">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E100">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F100">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H100">
+        <v>2E-3</v>
+      </c>
+      <c r="I100">
+        <v>2E-3</v>
+      </c>
+      <c r="J100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K100">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="C101">
+        <v>1.026</v>
+      </c>
+      <c r="D101">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E101">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F101">
+        <v>0.155</v>
+      </c>
+      <c r="G101">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H101">
+        <v>0.127</v>
+      </c>
+      <c r="I101">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J101">
+        <v>0.371</v>
+      </c>
+      <c r="K101">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>3.319</v>
+      </c>
+      <c r="C102">
+        <v>1.18</v>
+      </c>
+      <c r="D102">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E102">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F102">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G102">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H102">
+        <v>0.122</v>
+      </c>
+      <c r="I102">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J102">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K102">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>5.0789999999999997</v>
+      </c>
+      <c r="C103">
+        <v>1.78</v>
+      </c>
+      <c r="D103">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E103">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F103">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G103">
+        <v>0.188</v>
+      </c>
+      <c r="H103">
+        <v>0.17</v>
+      </c>
+      <c r="I103">
+        <v>0.184</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+      <c r="K103">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f>SUM(B2:B103)</f>
+        <v>245.22500000000002</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ref="C104:K104" si="0">SUM(C2:C103)</f>
+        <v>66.157000000000011</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="0"/>
+        <v>19.94199999999999</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="0"/>
+        <v>11.599000000000006</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="0"/>
+        <v>4.9549999999999983</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="0"/>
+        <v>4.1199999999999948</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="0"/>
+        <v>4.1559999999999944</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="0"/>
+        <v>7.8760000000000039</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="0"/>
+        <v>6.7409999999999863</v>
+      </c>
+      <c r="L104">
+        <f>SUM(B104:K104)</f>
+        <v>377.17099999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
